--- a/tests/bin/OpenRefine_exports/2_BR2_16-17.xlsx
+++ b/tests/bin/OpenRefine_exports/2_BR2_16-17.xlsx
@@ -168,7 +168,7 @@
         </is>
       </c>
       <c r="J2" s="1" t="n">
-        <v>42552.208333333336</v>
+        <v>42552.0</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -221,7 +221,7 @@
         </is>
       </c>
       <c r="J3" s="1" t="n">
-        <v>42644.208333333336</v>
+        <v>42644.0</v>
       </c>
       <c r="K3" t="n">
         <v>1.0</v>
@@ -274,7 +274,7 @@
         </is>
       </c>
       <c r="J4" s="1" t="n">
-        <v>42675.208333333336</v>
+        <v>42675.0</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -327,7 +327,7 @@
         </is>
       </c>
       <c r="J5" s="1" t="n">
-        <v>42705.208333333336</v>
+        <v>42705.0</v>
       </c>
       <c r="K5" t="n">
         <v>2.0</v>
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="J6" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="K6" t="n">
         <v>2.0</v>
